--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>600159.3315575419</v>
+        <v>597720.9415991252</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>269.2323335922499</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,7 +671,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>239.5921454989401</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>135.7101154616368</v>
+        <v>98.01862677130931</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>154.4746197994964</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>61.05801487789156</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>353.918212786155</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>315.9968882787545</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773061</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5003107098667</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>64.83435391452868</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>89.60487759803659</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>223.0977753814021</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>58.281855523864</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>89.28266377778658</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>304.3915154833894</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T11" t="n">
-        <v>148.9055307001842</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
         <v>250.9088959876463</v>
@@ -1464,7 +1464,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>81.3725990111917</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
         <v>286.1854515484204</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>87.06045008597438</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1613,10 +1613,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>129.1078928223836</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465709</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>58.4755966451444</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D19" t="n">
-        <v>38.61213096654735</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.15578456998</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.831980181942</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699766</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>164.8224308749187</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="27">
@@ -2716,10 +2716,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182139</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833666</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>170.9457618790573</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2956,13 +2956,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G31" t="n">
-        <v>103.1686991936193</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3190,13 +3190,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936148</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>134.5665975534137</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365955</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3427,16 +3427,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699795</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892458</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880066</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>80.08971311158706</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>23.10998325717172</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1636.624422581789</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C2" t="n">
-        <v>1636.624422581789</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>77.54416254678284</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993394</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V2" t="n">
-        <v>2788.565186649823</v>
+        <v>2830.063076702258</v>
       </c>
       <c r="W2" t="n">
-        <v>2435.796531379709</v>
+        <v>2477.294421432144</v>
       </c>
       <c r="X2" t="n">
-        <v>2298.715606670985</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y2" t="n">
-        <v>1908.576274695173</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686086</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064762</v>
+        <v>85.51940803064581</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>319.8727631082789</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C4" t="n">
-        <v>319.8727631082789</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D4" t="n">
-        <v>319.8727631082789</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E4" t="n">
-        <v>319.8727631082789</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F4" t="n">
-        <v>319.8727631082789</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757135</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757135</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="T4" t="n">
-        <v>609.2899331452395</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="U4" t="n">
-        <v>609.2899331452395</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="V4" t="n">
-        <v>609.2899331452395</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W4" t="n">
-        <v>319.8727631082789</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="X4" t="n">
-        <v>319.8727631082789</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="Y4" t="n">
-        <v>319.8727631082789</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2291.674678112797</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C5" t="n">
-        <v>1922.712161172385</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1564.446462565635</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1178.65820996739</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839474</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176919</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2678.274518176919</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2678.274518176919</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y5" t="n">
-        <v>2678.274518176919</v>
+        <v>1958.764357757271</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
         <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125858</v>
@@ -4674,22 +4674,22 @@
         <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297194</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199867</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471665</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266132</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>472.1048757766383</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>363.5187033424295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962296</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596508</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588487</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886963</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068862</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.966238459645</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181858</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181858</v>
+        <v>765.5673021974011</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181858</v>
+        <v>765.5673021974011</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181858</v>
+        <v>765.5673021974011</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181858</v>
+        <v>765.5673021974011</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181858</v>
+        <v>476.1501321604405</v>
       </c>
       <c r="X7" t="n">
-        <v>692.8974549201685</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y7" t="n">
-        <v>472.1048757766383</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1295.236214140707</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C8" t="n">
-        <v>926.2736972002956</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D8" t="n">
-        <v>568.0079985935452</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>568.0079985935452</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>157.0220938039376</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794326</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450755</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180641</v>
+        <v>2452.923229912873</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180641</v>
+        <v>2079.457471651794</v>
       </c>
       <c r="Y8" t="n">
-        <v>1681.836054204829</v>
+        <v>1689.318139675982</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>739.2385409879457</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C10" t="n">
-        <v>570.3023580600388</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D10" t="n">
-        <v>420.1857186477031</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E10" t="n">
-        <v>272.27262506531</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F10" t="n">
-        <v>125.3826775673996</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181855</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181855</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181855</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181855</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181855</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181855</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181855</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555042</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614631</v>
       </c>
       <c r="D11" t="n">
         <v>1589.996253358682</v>
@@ -5030,61 +5030,61 @@
         <v>793.22209597083</v>
       </c>
       <c r="G11" t="n">
-        <v>379.2389888872365</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H11" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608047</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251932</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128758</v>
+        <v>841.9378825128749</v>
       </c>
       <c r="L11" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.457663018649</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.497374127286</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304027</v>
+        <v>4640.581161304024</v>
       </c>
       <c r="S11" t="n">
-        <v>4555.113898070876</v>
+        <v>4555.113898070873</v>
       </c>
       <c r="T11" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469741</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.198054476972</v>
+        <v>3769.39853312617</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856056</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.164119594976</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619164</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608054</v>
+        <v>93.85065580060304</v>
       </c>
       <c r="J12" t="n">
-        <v>92.81162322608054</v>
+        <v>241.4986375524489</v>
       </c>
       <c r="K12" t="n">
-        <v>92.81162322608054</v>
+        <v>572.0073801158076</v>
       </c>
       <c r="L12" t="n">
-        <v>583.5439560698319</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M12" t="n">
-        <v>1175.56231032196</v>
+        <v>1117.915713151553</v>
       </c>
       <c r="N12" t="n">
-        <v>1797.658273721296</v>
+        <v>1740.011676550889</v>
       </c>
       <c r="O12" t="n">
-        <v>2344.53474872149</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="P12" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R12" t="n">
         <v>2552.77562977024</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.385284034031</v>
+        <v>494.0589900220723</v>
       </c>
       <c r="C13" t="n">
-        <v>929.4491011061236</v>
+        <v>325.1228070941654</v>
       </c>
       <c r="D13" t="n">
-        <v>779.3324616937879</v>
+        <v>175.0061676818297</v>
       </c>
       <c r="E13" t="n">
-        <v>631.4193681113948</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="F13" t="n">
-        <v>484.5294206134844</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="G13" t="n">
-        <v>317.3152257880633</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="H13" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I13" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J13" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K13" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L13" t="n">
-        <v>819.1842911693324</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M13" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N13" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O13" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P13" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q13" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.516429368669</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.516429368669</v>
+        <v>2177.346239107598</v>
       </c>
       <c r="T13" t="n">
-        <v>2360.516429368669</v>
+        <v>1957.66745682198</v>
       </c>
       <c r="U13" t="n">
-        <v>2071.440215683396</v>
+        <v>1668.591243136707</v>
       </c>
       <c r="V13" t="n">
-        <v>1816.755727477509</v>
+        <v>1413.90675493082</v>
       </c>
       <c r="W13" t="n">
-        <v>1728.815878905817</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X13" t="n">
-        <v>1500.8263280078</v>
+        <v>896.5000339958422</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.03374886427</v>
+        <v>675.707454852312</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,58 +5270,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>417.9651836029414</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>990.5373202159259</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>821.601137288019</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>671.4844978756832</v>
+        <v>383.4415877881686</v>
       </c>
       <c r="E16" t="n">
-        <v>523.5714042932901</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>376.6814567953797</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5534,31 +5534,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996072</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2443.97263649114</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048574</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,28 +5747,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.917417812163</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297698</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297698</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5920,40 +5920,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400664</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121596</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121596</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>197.0043242297664</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2213.430075918604</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2213.430075918604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1924.354849262801</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1669.670361056914</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1380.253191019954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1152.263640121936</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>931.4710609784063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6221,7 +6221,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6230,13 +6230,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6306,22 +6306,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>241.729756630365</v>
+        <v>194.8007783998271</v>
       </c>
       <c r="E28" t="n">
         <v>93.81666304797187</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6546,22 +6546,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6604,10 +6604,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F31" t="n">
-        <v>198.027470314254</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998286</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7163,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>244.2098454714574</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>739.5354516872161</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.913939313768</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>113.5015080712306</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22562,10 +22562,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,10 +22601,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>88.16011297119476</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22702,25 +22702,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>50.2915261372936</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>50.29152613728999</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>65.06136363537748</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>199.4625482506166</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819416</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>19.50758019582875</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>107.0485416471244</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D19" t="n">
-        <v>110.003342051665</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>119.8635921600923</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.36835372228886</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24212,7 +24212,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>43.26526345295461</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>16.20385512672587</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>46.45968844823251</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24844,13 +24844,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G31" t="n">
-        <v>62.35543909864957</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>45.44677382459756</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>46.45968844823085</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,16 +25315,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>46.45968844823281</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>65.54986409393069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,10 +25561,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26029,16 +26029,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>938689.0531258116</v>
+        <v>938689.053125812</v>
       </c>
     </row>
     <row r="3">
@@ -26317,10 +26317,10 @@
         <v>410520.8849321415</v>
       </c>
       <c r="D2" t="n">
-        <v>410520.8849321415</v>
+        <v>410520.8849321416</v>
       </c>
       <c r="E2" t="n">
-        <v>401339.8858190154</v>
+        <v>401339.8858190153</v>
       </c>
       <c r="F2" t="n">
         <v>403573.2998450031</v>
@@ -26329,10 +26329,10 @@
         <v>403573.2998450031</v>
       </c>
       <c r="H2" t="n">
-        <v>403573.299845003</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="I2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450029</v>
       </c>
       <c r="J2" t="n">
         <v>403573.299845003</v>
@@ -26347,13 +26347,13 @@
         <v>403573.2998450031</v>
       </c>
       <c r="N2" t="n">
+        <v>403573.2998450032</v>
+      </c>
+      <c r="O2" t="n">
         <v>403573.2998450031</v>
       </c>
-      <c r="O2" t="n">
-        <v>403573.2998450029</v>
-      </c>
       <c r="P2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450032</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>2.07046923605958e-10</v>
@@ -26375,7 +26375,7 @@
         <v>313680.0588189853</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504109</v>
+        <v>11452.26311504171</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>81924.27863832914</v>
+        <v>81924.27863832918</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.017355704674</v>
+        <v>3077.017355704897</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53591.37877567922</v>
+        <v>53591.37877567951</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405243</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405246</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="E4" t="n">
         <v>14820.16342064201</v>
@@ -26439,7 +26439,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186737</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
         <v>14826.69604186736</v>
@@ -26454,7 +26454,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="P4" t="n">
         <v>14826.69604186736</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1114794.443814341</v>
+        <v>-1114969.67013275</v>
       </c>
       <c r="C6" t="n">
         <v>208990.2002666955</v>
@@ -26528,40 +26528,40 @@
         <v>208990.2002666959</v>
       </c>
       <c r="E6" t="n">
-        <v>-27302.46493445034</v>
+        <v>-27348.36993001599</v>
       </c>
       <c r="F6" t="n">
-        <v>276171.8108641875</v>
+        <v>276137.0729387511</v>
       </c>
       <c r="G6" t="n">
-        <v>287624.0739792286</v>
+        <v>287589.3360537929</v>
       </c>
       <c r="H6" t="n">
-        <v>287624.0739792285</v>
+        <v>287589.3360537929</v>
       </c>
       <c r="I6" t="n">
-        <v>287624.0739792286</v>
+        <v>287589.3360537928</v>
       </c>
       <c r="J6" t="n">
-        <v>70092.87158195097</v>
+        <v>70058.13365651539</v>
       </c>
       <c r="K6" t="n">
-        <v>287624.0739792286</v>
+        <v>287589.3360537929</v>
       </c>
       <c r="L6" t="n">
-        <v>287624.0739792286</v>
+        <v>287589.3360537929</v>
       </c>
       <c r="M6" t="n">
-        <v>205699.7953408995</v>
+        <v>205665.0574154637</v>
       </c>
       <c r="N6" t="n">
-        <v>284547.0566235239</v>
+        <v>284512.3186980881</v>
       </c>
       <c r="O6" t="n">
-        <v>287624.0739792284</v>
+        <v>287589.3360537929</v>
       </c>
       <c r="P6" t="n">
-        <v>287624.0739792286</v>
+        <v>287589.336053793</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>2.273736754432321e-13</v>
@@ -26969,7 +26969,7 @@
         <v>268.2643481230873</v>
       </c>
       <c r="F3" t="n">
-        <v>9.93445162528792</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>328.7438349237136</v>
       </c>
       <c r="F4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237136</v>
+        <v>328.7438349237138</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27267,7 +27267,7 @@
         <v>328.7438349237136</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>234.0209852168322</v>
+        <v>271.7124739071597</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>11.55118845953183</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>191.0796284459364</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>52.95783295555646</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>70.24105037729908</v>
       </c>
     </row>
     <row r="6">
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>-1.733724275254644e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.7465103887611</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>124.9346714169132</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>321.3168480554169</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>126.1431933360109</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.7439527351642</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>196.9291744278263</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28333,10 +28333,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2.411648116956221e-12</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="27">
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29967,7 +29967,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K11" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M11" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086953</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S11" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U11" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H12" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504302</v>
+        <v>197.8673674492848</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927636</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426203</v>
       </c>
       <c r="P12" t="n">
-        <v>344.3187317059969</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S12" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U12" t="n">
         <v>0.1921756201013754</v>
@@ -31908,34 +31908,34 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H13" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J13" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q13" t="n">
         <v>205.0641983561742</v>
@@ -31944,7 +31944,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T13" t="n">
         <v>10.46359496551969</v>
@@ -32072,34 +32072,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>312.3207226334981</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,16 +32546,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>430.1367711736326</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>300.5543663814922</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,25 +33026,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>266.6561007250664</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33266,7 +33266,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>403.3065760821439</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33734,7 +33734,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33901,7 +33901,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34211,7 +34211,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>289.7537444526272</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,16 +34220,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>473.8581708471803</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>614.7544723218309</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034295</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966713</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840383</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106942</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014226</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N11" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P11" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404112</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845842</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.049527853053078</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284119</v>
+        <v>55.73333352726647</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094304</v>
       </c>
       <c r="O12" t="n">
-        <v>552.4004797981761</v>
+        <v>552.4004797981759</v>
       </c>
       <c r="P12" t="n">
-        <v>210.3443242916667</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>232.8901757426736</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.68303457970737</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L13" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O13" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>174.4792836591391</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>291.5823913937584</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899057</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060454</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>161.999986601618</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>151.9123054782682</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,16 +37868,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>342.516458763847</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
